--- a/Members_Data.xlsx
+++ b/Members_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">MEMBER ID</t>
   </si>
@@ -77,51 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@</t>
   </si>
   <si>
     <t xml:space="preserve">28191</t>
@@ -236,20 +191,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,274 +404,130 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Members_Data.xlsx
+++ b/Members_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,31 +596,668 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>56122</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Khairul</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0102222222</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>KH@YAHOO.COM</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99999</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
